--- a/outputs-HGR-r202/train-f__Monoglobaceae_split_pruned.xlsx
+++ b/outputs-HGR-r202/train-f__Monoglobaceae_split_pruned.xlsx
@@ -10,6 +10,7 @@
     <sheet name="quadratic-svm-score4" sheetId="3" r:id="rId5"/>
     <sheet name="quadratic-svm-score3" sheetId="4" r:id="rId6"/>
     <sheet name="quadratic-svm-score2" sheetId="5" r:id="rId7"/>
+    <sheet name="quadratic-svm-score1" sheetId="6" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="125725" fullCalcOnLoad="true"/>
@@ -17,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="549" uniqueCount="528">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="686" uniqueCount="658">
   <si>
     <t>Row</t>
   </si>
@@ -1601,6 +1602,396 @@
   </si>
   <si>
     <t>label_UMGS821_93.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1682_1.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1682_19.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1682_20.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1682_23.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1682_24.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1682_3.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1682_31.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1682_32.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1682_33.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1682_34.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1682_4.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1682_41.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1682_47.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1682_5.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1682_51.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1682_53.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1682_59.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1682_61.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1682_64.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS491_100.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS491_105.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS491_107.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS491_108.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS491_14.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS491_16.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS491_18.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS491_24.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS491_25.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS491_3.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS491_30.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS491_34.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS491_4.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS491_43.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS491_5.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS491_50.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS491_52.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS491_53.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS491_55.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS491_56.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS491_57.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS491_59.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS491_6.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS491_72.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS491_73.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS491_84.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS491_97.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1326_113.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1326_114.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1326_116.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1326_122.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1326_124.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1326_126.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1326_128.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1326_131.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1326_135.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1326_136.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1326_19.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1326_29.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1326_33.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1326_51.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1326_53.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1326_57.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1326_59.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1326_60.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1326_62.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1326_64.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1326_68.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1326_7.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1326_74.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1326_76.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1326_80.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1326_86.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1326_90.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1326_91.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1494_0.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1494_104.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1494_106.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1494_107.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1494_133.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1494_138.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1494_143.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1494_144.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1494_15.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1494_16.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1494_24.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1494_26.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1494_35.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1494_36.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1494_38.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1494_41.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1494_43.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1494_60.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1494_70.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1494_71.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1494_79.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1494_83.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1494_86.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1494_96.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1494_97.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1494_99.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1820_21.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1820_25.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1820_34.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1820_5.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1820_52.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1820_53.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1820_54.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1820_56.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1820_63.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1820_71.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS821_12.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS821_15.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS821_19.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS821_20.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS821_23.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS821_27.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS821_36.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS821_41.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS821_42.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS821_50.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS821_51.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS821_55.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS821_56.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS821_60.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS821_75.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS821_79.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS821_86.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS821_88.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS821_9.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS821_91.fasta</t>
   </si>
 </sst>
 </file>
@@ -1621,7 +2012,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -1637,11 +2028,13 @@
     <border/>
     <border/>
     <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
@@ -1651,6 +2044,8 @@
     <xf numFmtId="22" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -13803,4 +14198,3035 @@
     </row>
   </sheetData>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G131"/>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="24.7109375" customWidth="true"/>
+    <col min="2" max="2" width="15.7109375" customWidth="true"/>
+    <col min="3" max="3" width="15.7109375" customWidth="true"/>
+    <col min="4" max="4" width="15.7109375" customWidth="true"/>
+    <col min="5" max="5" width="15.7109375" customWidth="true"/>
+    <col min="6" max="6" width="10.28515625" customWidth="true"/>
+    <col min="7" max="7" width="6.42578125" customWidth="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="9" t="s">
+        <v>528</v>
+      </c>
+      <c r="B2">
+        <v>0.99995461561891241</v>
+      </c>
+      <c r="C2">
+        <v>9.2159103411483138e-07</v>
+      </c>
+      <c r="D2">
+        <v>4.2912790550851805e-08</v>
+      </c>
+      <c r="E2">
+        <v>4.4419877262888149e-05</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="9" t="s">
+        <v>529</v>
+      </c>
+      <c r="B3">
+        <v>0.99999420240815284</v>
+      </c>
+      <c r="C3">
+        <v>1.5104853766597614e-07</v>
+      </c>
+      <c r="D3">
+        <v>5.1928643842598352e-06</v>
+      </c>
+      <c r="E3">
+        <v>4.5367892529259159e-07</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="9" t="s">
+        <v>530</v>
+      </c>
+      <c r="B4">
+        <v>0.99933257966177069</v>
+      </c>
+      <c r="C4">
+        <v>2.4007380758882406e-05</v>
+      </c>
+      <c r="D4">
+        <v>0.00010769158195915119</v>
+      </c>
+      <c r="E4">
+        <v>0.00053572137551129672</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="9" t="s">
+        <v>531</v>
+      </c>
+      <c r="B5">
+        <v>0.99994725380591565</v>
+      </c>
+      <c r="C5">
+        <v>9.5458417929598223e-06</v>
+      </c>
+      <c r="D5">
+        <v>1.8330088239141409e-05</v>
+      </c>
+      <c r="E5">
+        <v>2.4870264052261665e-05</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="9" t="s">
+        <v>532</v>
+      </c>
+      <c r="B6">
+        <v>0.99993396143490243</v>
+      </c>
+      <c r="C6">
+        <v>1.8611825659147333e-05</v>
+      </c>
+      <c r="D6">
+        <v>3.4443411919806311e-05</v>
+      </c>
+      <c r="E6">
+        <v>1.2983327518568612e-05</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="9" t="s">
+        <v>533</v>
+      </c>
+      <c r="B7">
+        <v>0.99978188004270285</v>
+      </c>
+      <c r="C7">
+        <v>0.00010771369690612466</v>
+      </c>
+      <c r="D7">
+        <v>2.7222000409897382e-06</v>
+      </c>
+      <c r="E7">
+        <v>0.0001076840603499799</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="9" t="s">
+        <v>534</v>
+      </c>
+      <c r="B8">
+        <v>0.99961264392842475</v>
+      </c>
+      <c r="C8">
+        <v>2.0043631482526356e-06</v>
+      </c>
+      <c r="D8">
+        <v>0.00038462392171087018</v>
+      </c>
+      <c r="E8">
+        <v>7.2778671613980515e-07</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="9" t="s">
+        <v>535</v>
+      </c>
+      <c r="B9">
+        <v>0.99920349051023505</v>
+      </c>
+      <c r="C9">
+        <v>2.1590969555972868e-06</v>
+      </c>
+      <c r="D9">
+        <v>0.00079235076743217785</v>
+      </c>
+      <c r="E9">
+        <v>1.9996253771776143e-06</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="9" t="s">
+        <v>536</v>
+      </c>
+      <c r="B10">
+        <v>0.99454818882814999</v>
+      </c>
+      <c r="C10">
+        <v>3.4857023249391629e-06</v>
+      </c>
+      <c r="D10">
+        <v>0.0051094288058676366</v>
+      </c>
+      <c r="E10">
+        <v>0.00033889666365744729</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="9" t="s">
+        <v>537</v>
+      </c>
+      <c r="B11">
+        <v>0.99985554566701118</v>
+      </c>
+      <c r="C11">
+        <v>8.148379985412463e-05</v>
+      </c>
+      <c r="D11">
+        <v>9.8458680597045971e-06</v>
+      </c>
+      <c r="E11">
+        <v>5.3124665074935122e-05</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="9" t="s">
+        <v>538</v>
+      </c>
+      <c r="B12">
+        <v>0.99994328151132494</v>
+      </c>
+      <c r="C12">
+        <v>5.9920193157750193e-06</v>
+      </c>
+      <c r="D12">
+        <v>7.0753937840453297e-08</v>
+      </c>
+      <c r="E12">
+        <v>5.0655715421521343e-05</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="9" t="s">
+        <v>539</v>
+      </c>
+      <c r="B13">
+        <v>0.99804784408914438</v>
+      </c>
+      <c r="C13">
+        <v>2.0791622093128612e-05</v>
+      </c>
+      <c r="D13">
+        <v>0.0019312161689999036</v>
+      </c>
+      <c r="E13">
+        <v>1.4811976251692329e-07</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="9" t="s">
+        <v>540</v>
+      </c>
+      <c r="B14">
+        <v>0.99922540667384918</v>
+      </c>
+      <c r="C14">
+        <v>1.0250114569057893e-06</v>
+      </c>
+      <c r="D14">
+        <v>0.00076399353705985625</v>
+      </c>
+      <c r="E14">
+        <v>9.5747776340619412e-06</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="9" t="s">
+        <v>541</v>
+      </c>
+      <c r="B15">
+        <v>0.99999108412063786</v>
+      </c>
+      <c r="C15">
+        <v>5.0922168254688917e-06</v>
+      </c>
+      <c r="D15">
+        <v>6.1449098863148575e-07</v>
+      </c>
+      <c r="E15">
+        <v>3.2091715478880017e-06</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="9" t="s">
+        <v>542</v>
+      </c>
+      <c r="B16">
+        <v>0.99982327503240598</v>
+      </c>
+      <c r="C16">
+        <v>3.5945952398023283e-07</v>
+      </c>
+      <c r="D16">
+        <v>3.4856683190253603e-05</v>
+      </c>
+      <c r="E16">
+        <v>0.00014150882487971864</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="9" t="s">
+        <v>543</v>
+      </c>
+      <c r="B17">
+        <v>0.99575030405038845</v>
+      </c>
+      <c r="C17">
+        <v>6.961663847915206e-06</v>
+      </c>
+      <c r="D17">
+        <v>0.0015965067115592496</v>
+      </c>
+      <c r="E17">
+        <v>0.0026462275742044259</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="9" t="s">
+        <v>544</v>
+      </c>
+      <c r="B18">
+        <v>0.99905018045933247</v>
+      </c>
+      <c r="C18">
+        <v>4.0213216733258451e-07</v>
+      </c>
+      <c r="D18">
+        <v>1.8048001806706125e-05</v>
+      </c>
+      <c r="E18">
+        <v>0.00093136940669333085</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="9" t="s">
+        <v>545</v>
+      </c>
+      <c r="B19">
+        <v>0.74008893215459381</v>
+      </c>
+      <c r="C19">
+        <v>3.2739450473498597e-05</v>
+      </c>
+      <c r="D19">
+        <v>0.18292427695746347</v>
+      </c>
+      <c r="E19">
+        <v>0.076954051437469057</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="9" t="s">
+        <v>546</v>
+      </c>
+      <c r="B20">
+        <v>0.42661447356352306</v>
+      </c>
+      <c r="C20">
+        <v>0.28374114868911399</v>
+      </c>
+      <c r="D20">
+        <v>0.1893677408317811</v>
+      </c>
+      <c r="E20">
+        <v>0.10027663691558183</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="9" t="s">
+        <v>547</v>
+      </c>
+      <c r="B21">
+        <v>0.98833550905415646</v>
+      </c>
+      <c r="C21">
+        <v>1.3254251996555899e-09</v>
+      </c>
+      <c r="D21">
+        <v>2.6616712465765329e-06</v>
+      </c>
+      <c r="E21">
+        <v>0.011661827949171864</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="9" t="s">
+        <v>548</v>
+      </c>
+      <c r="B22">
+        <v>0.30683713883146352</v>
+      </c>
+      <c r="C22">
+        <v>2.9951804980627266e-05</v>
+      </c>
+      <c r="D22">
+        <v>0.47761677730644492</v>
+      </c>
+      <c r="E22">
+        <v>0.21551613205711098</v>
+      </c>
+      <c r="F22">
+        <v>3</v>
+      </c>
+      <c r="G22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="9" t="s">
+        <v>549</v>
+      </c>
+      <c r="B23">
+        <v>0.89803268234617717</v>
+      </c>
+      <c r="C23">
+        <v>5.1421460634142518e-06</v>
+      </c>
+      <c r="D23">
+        <v>0.10029253408306563</v>
+      </c>
+      <c r="E23">
+        <v>0.0016696414246939028</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="9" t="s">
+        <v>550</v>
+      </c>
+      <c r="B24">
+        <v>0.87440867983430959</v>
+      </c>
+      <c r="C24">
+        <v>8.4440753923366999e-08</v>
+      </c>
+      <c r="D24">
+        <v>0.12545227817426821</v>
+      </c>
+      <c r="E24">
+        <v>0.00013895755066810475</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="9" t="s">
+        <v>551</v>
+      </c>
+      <c r="B25">
+        <v>0.99999480055986367</v>
+      </c>
+      <c r="C25">
+        <v>4.449658840276102e-07</v>
+      </c>
+      <c r="D25">
+        <v>2.1315847357600561e-06</v>
+      </c>
+      <c r="E25">
+        <v>2.6228895166921288e-06</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="9" t="s">
+        <v>552</v>
+      </c>
+      <c r="B26">
+        <v>0.99991100559000934</v>
+      </c>
+      <c r="C26">
+        <v>7.2337192122258547e-07</v>
+      </c>
+      <c r="D26">
+        <v>4.4862544176905388e-08</v>
+      </c>
+      <c r="E26">
+        <v>8.8226175525280121e-05</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="9" t="s">
+        <v>553</v>
+      </c>
+      <c r="B27">
+        <v>0.99995037111521468</v>
+      </c>
+      <c r="C27">
+        <v>5.8877487152266399e-06</v>
+      </c>
+      <c r="D27">
+        <v>4.0035293554569706e-06</v>
+      </c>
+      <c r="E27">
+        <v>3.9737606714508483e-05</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="9" t="s">
+        <v>554</v>
+      </c>
+      <c r="B28">
+        <v>0.99998627264925644</v>
+      </c>
+      <c r="C28">
+        <v>1.7788382429420407e-06</v>
+      </c>
+      <c r="D28">
+        <v>5.1122595411841147e-09</v>
+      </c>
+      <c r="E28">
+        <v>1.194340024096768e-05</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="9" t="s">
+        <v>555</v>
+      </c>
+      <c r="B29">
+        <v>0.99866386373338278</v>
+      </c>
+      <c r="C29">
+        <v>2.9329900282284151e-06</v>
+      </c>
+      <c r="D29">
+        <v>4.3908465484433456e-05</v>
+      </c>
+      <c r="E29">
+        <v>0.0012892948111045933</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="9" t="s">
+        <v>556</v>
+      </c>
+      <c r="B30">
+        <v>0.99988142269086888</v>
+      </c>
+      <c r="C30">
+        <v>4.2404393397826897e-05</v>
+      </c>
+      <c r="D30">
+        <v>5.500609823153104e-07</v>
+      </c>
+      <c r="E30">
+        <v>7.562285475094422e-05</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="9" t="s">
+        <v>557</v>
+      </c>
+      <c r="B31">
+        <v>0.99944311283251008</v>
+      </c>
+      <c r="C31">
+        <v>3.6741130266167812e-06</v>
+      </c>
+      <c r="D31">
+        <v>4.8584524695976008e-06</v>
+      </c>
+      <c r="E31">
+        <v>0.00054835460199364843</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="9" t="s">
+        <v>558</v>
+      </c>
+      <c r="B32">
+        <v>0.9864749495821139</v>
+      </c>
+      <c r="C32">
+        <v>0.00019150041417053117</v>
+      </c>
+      <c r="D32">
+        <v>0.0015550220454483997</v>
+      </c>
+      <c r="E32">
+        <v>0.011778527958267069</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="9" t="s">
+        <v>559</v>
+      </c>
+      <c r="B33">
+        <v>0.99998253588862296</v>
+      </c>
+      <c r="C33">
+        <v>1.5352839574667646e-05</v>
+      </c>
+      <c r="D33">
+        <v>1.5751491462450591e-06</v>
+      </c>
+      <c r="E33">
+        <v>5.3612265611357416e-07</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="9" t="s">
+        <v>560</v>
+      </c>
+      <c r="B34">
+        <v>0.99884302920112222</v>
+      </c>
+      <c r="C34">
+        <v>1.8002029163061107e-05</v>
+      </c>
+      <c r="D34">
+        <v>3.2800732393925717e-05</v>
+      </c>
+      <c r="E34">
+        <v>0.0011061680373206774</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="9" t="s">
+        <v>561</v>
+      </c>
+      <c r="B35">
+        <v>0.99987133501988001</v>
+      </c>
+      <c r="C35">
+        <v>5.1971395659722644e-05</v>
+      </c>
+      <c r="D35">
+        <v>6.827103832155465e-07</v>
+      </c>
+      <c r="E35">
+        <v>7.6010874077077874e-05</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="9" t="s">
+        <v>562</v>
+      </c>
+      <c r="B36">
+        <v>0.99996824360470027</v>
+      </c>
+      <c r="C36">
+        <v>1.8057318302125734e-07</v>
+      </c>
+      <c r="D36">
+        <v>1.2419901104498008e-05</v>
+      </c>
+      <c r="E36">
+        <v>1.9155921012119054e-05</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="9" t="s">
+        <v>563</v>
+      </c>
+      <c r="B37">
+        <v>0.99615871128545408</v>
+      </c>
+      <c r="C37">
+        <v>9.926584410931416e-07</v>
+      </c>
+      <c r="D37">
+        <v>6.2796438138231275e-06</v>
+      </c>
+      <c r="E37">
+        <v>0.0038340164122910502</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="9" t="s">
+        <v>564</v>
+      </c>
+      <c r="B38">
+        <v>0.99998315557519457</v>
+      </c>
+      <c r="C38">
+        <v>5.9041275100601287e-08</v>
+      </c>
+      <c r="D38">
+        <v>1.3604216774470828e-05</v>
+      </c>
+      <c r="E38">
+        <v>3.1811667559276755e-06</v>
+      </c>
+      <c r="F38">
+        <v>1</v>
+      </c>
+      <c r="G38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="9" t="s">
+        <v>565</v>
+      </c>
+      <c r="B39">
+        <v>0.99996946392598318</v>
+      </c>
+      <c r="C39">
+        <v>2.0816689771447992e-08</v>
+      </c>
+      <c r="D39">
+        <v>1.6131132693887372e-09</v>
+      </c>
+      <c r="E39">
+        <v>3.0513644213736403e-05</v>
+      </c>
+      <c r="F39">
+        <v>1</v>
+      </c>
+      <c r="G39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="9" t="s">
+        <v>566</v>
+      </c>
+      <c r="B40">
+        <v>0.98705121374994798</v>
+      </c>
+      <c r="C40">
+        <v>7.7925096290685517e-08</v>
+      </c>
+      <c r="D40">
+        <v>0.0048694128894698294</v>
+      </c>
+      <c r="E40">
+        <v>0.0080792954354860589</v>
+      </c>
+      <c r="F40">
+        <v>1</v>
+      </c>
+      <c r="G40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="9" t="s">
+        <v>567</v>
+      </c>
+      <c r="B41">
+        <v>0.99990954880842842</v>
+      </c>
+      <c r="C41">
+        <v>4.2532652327946923e-09</v>
+      </c>
+      <c r="D41">
+        <v>1.3637500795290682e-05</v>
+      </c>
+      <c r="E41">
+        <v>7.6809437511000752e-05</v>
+      </c>
+      <c r="F41">
+        <v>1</v>
+      </c>
+      <c r="G41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="9" t="s">
+        <v>568</v>
+      </c>
+      <c r="B42">
+        <v>0.99808212042534128</v>
+      </c>
+      <c r="C42">
+        <v>5.1716788653445415e-07</v>
+      </c>
+      <c r="D42">
+        <v>0.0018957977635697316</v>
+      </c>
+      <c r="E42">
+        <v>2.1564643202464782e-05</v>
+      </c>
+      <c r="F42">
+        <v>1</v>
+      </c>
+      <c r="G42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="9" t="s">
+        <v>569</v>
+      </c>
+      <c r="B43">
+        <v>0.99839200920530635</v>
+      </c>
+      <c r="C43">
+        <v>2.4669857794560247e-07</v>
+      </c>
+      <c r="D43">
+        <v>0.00010739480381889302</v>
+      </c>
+      <c r="E43">
+        <v>0.001500349292296797</v>
+      </c>
+      <c r="F43">
+        <v>1</v>
+      </c>
+      <c r="G43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="9" t="s">
+        <v>570</v>
+      </c>
+      <c r="B44">
+        <v>0.98583715575204134</v>
+      </c>
+      <c r="C44">
+        <v>1.4136725330567943e-06</v>
+      </c>
+      <c r="D44">
+        <v>0.013348212335387454</v>
+      </c>
+      <c r="E44">
+        <v>0.00081321824003818756</v>
+      </c>
+      <c r="F44">
+        <v>1</v>
+      </c>
+      <c r="G44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="9" t="s">
+        <v>571</v>
+      </c>
+      <c r="B45">
+        <v>0.9999447952683661</v>
+      </c>
+      <c r="C45">
+        <v>9.3081161568862814e-08</v>
+      </c>
+      <c r="D45">
+        <v>3.5077411068031275e-05</v>
+      </c>
+      <c r="E45">
+        <v>2.0034239404252798e-05</v>
+      </c>
+      <c r="F45">
+        <v>1</v>
+      </c>
+      <c r="G45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="9" t="s">
+        <v>572</v>
+      </c>
+      <c r="B46">
+        <v>0.92475173452327841</v>
+      </c>
+      <c r="C46">
+        <v>3.8540707421821751e-05</v>
+      </c>
+      <c r="D46">
+        <v>0.0026507602140666488</v>
+      </c>
+      <c r="E46">
+        <v>0.072558964555232988</v>
+      </c>
+      <c r="F46">
+        <v>1</v>
+      </c>
+      <c r="G46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="9" t="s">
+        <v>573</v>
+      </c>
+      <c r="B47">
+        <v>0.98364689403474792</v>
+      </c>
+      <c r="C47">
+        <v>8.7218801712197916e-10</v>
+      </c>
+      <c r="D47">
+        <v>1.4242442143190041e-05</v>
+      </c>
+      <c r="E47">
+        <v>0.016338862650920955</v>
+      </c>
+      <c r="F47">
+        <v>1</v>
+      </c>
+      <c r="G47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="9" t="s">
+        <v>574</v>
+      </c>
+      <c r="B48">
+        <v>0.0017547547468449299</v>
+      </c>
+      <c r="C48">
+        <v>0.9982278848882149</v>
+      </c>
+      <c r="D48">
+        <v>2.9109609628575609e-06</v>
+      </c>
+      <c r="E48">
+        <v>1.444940397736748e-05</v>
+      </c>
+      <c r="F48">
+        <v>2</v>
+      </c>
+      <c r="G48">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="9" t="s">
+        <v>575</v>
+      </c>
+      <c r="B49">
+        <v>8.5757537826412288e-09</v>
+      </c>
+      <c r="C49">
+        <v>0.99986839444455322</v>
+      </c>
+      <c r="D49">
+        <v>0.00013159667073336286</v>
+      </c>
+      <c r="E49">
+        <v>3.0895960359079865e-10</v>
+      </c>
+      <c r="F49">
+        <v>2</v>
+      </c>
+      <c r="G49">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="9" t="s">
+        <v>576</v>
+      </c>
+      <c r="B50">
+        <v>2.9876542855841124e-07</v>
+      </c>
+      <c r="C50">
+        <v>0.98741359763724956</v>
+      </c>
+      <c r="D50">
+        <v>0.012586102847090943</v>
+      </c>
+      <c r="E50">
+        <v>7.5023106450237165e-10</v>
+      </c>
+      <c r="F50">
+        <v>2</v>
+      </c>
+      <c r="G50">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="9" t="s">
+        <v>577</v>
+      </c>
+      <c r="B51">
+        <v>2.9736156461711323e-08</v>
+      </c>
+      <c r="C51">
+        <v>0.98933394969137078</v>
+      </c>
+      <c r="D51">
+        <v>0.010645527580552342</v>
+      </c>
+      <c r="E51">
+        <v>2.0492991920250073e-05</v>
+      </c>
+      <c r="F51">
+        <v>2</v>
+      </c>
+      <c r="G51">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="9" t="s">
+        <v>578</v>
+      </c>
+      <c r="B52">
+        <v>7.9388607893955357e-08</v>
+      </c>
+      <c r="C52">
+        <v>0.99923202295999025</v>
+      </c>
+      <c r="D52">
+        <v>0.00058975938203585426</v>
+      </c>
+      <c r="E52">
+        <v>0.00017813826936576957</v>
+      </c>
+      <c r="F52">
+        <v>2</v>
+      </c>
+      <c r="G52">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="9" t="s">
+        <v>579</v>
+      </c>
+      <c r="B53">
+        <v>3.4425536003860378e-07</v>
+      </c>
+      <c r="C53">
+        <v>0.99999739170995394</v>
+      </c>
+      <c r="D53">
+        <v>2.2606568804673357e-06</v>
+      </c>
+      <c r="E53">
+        <v>3.3778057035364778e-09</v>
+      </c>
+      <c r="F53">
+        <v>2</v>
+      </c>
+      <c r="G53">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="9" t="s">
+        <v>580</v>
+      </c>
+      <c r="B54">
+        <v>7.9648966345351475e-11</v>
+      </c>
+      <c r="C54">
+        <v>0.51021002731587017</v>
+      </c>
+      <c r="D54">
+        <v>0.0025723051283108173</v>
+      </c>
+      <c r="E54">
+        <v>0.48721766747617007</v>
+      </c>
+      <c r="F54">
+        <v>2</v>
+      </c>
+      <c r="G54">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="9" t="s">
+        <v>581</v>
+      </c>
+      <c r="B55">
+        <v>0.00037799344186685086</v>
+      </c>
+      <c r="C55">
+        <v>0.99947516105308454</v>
+      </c>
+      <c r="D55">
+        <v>0.00013930775506848725</v>
+      </c>
+      <c r="E55">
+        <v>7.5377499800793681e-06</v>
+      </c>
+      <c r="F55">
+        <v>2</v>
+      </c>
+      <c r="G55">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="9" t="s">
+        <v>582</v>
+      </c>
+      <c r="B56">
+        <v>0.13170158400671</v>
+      </c>
+      <c r="C56">
+        <v>0.72308796352744986</v>
+      </c>
+      <c r="D56">
+        <v>0.091816780652320559</v>
+      </c>
+      <c r="E56">
+        <v>0.053393671813519582</v>
+      </c>
+      <c r="F56">
+        <v>2</v>
+      </c>
+      <c r="G56">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="9" t="s">
+        <v>583</v>
+      </c>
+      <c r="B57">
+        <v>1.191039299116724e-08</v>
+      </c>
+      <c r="C57">
+        <v>0.99998277131011948</v>
+      </c>
+      <c r="D57">
+        <v>1.7176479401697257e-05</v>
+      </c>
+      <c r="E57">
+        <v>4.0300085869210904e-08</v>
+      </c>
+      <c r="F57">
+        <v>2</v>
+      </c>
+      <c r="G57">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="9" t="s">
+        <v>584</v>
+      </c>
+      <c r="B58">
+        <v>6.1733079044376383e-07</v>
+      </c>
+      <c r="C58">
+        <v>0.99999934777999255</v>
+      </c>
+      <c r="D58">
+        <v>3.4889159512486548e-08</v>
+      </c>
+      <c r="E58">
+        <v>5.7466109589544261e-14</v>
+      </c>
+      <c r="F58">
+        <v>2</v>
+      </c>
+      <c r="G58">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="9" t="s">
+        <v>585</v>
+      </c>
+      <c r="B59">
+        <v>8.8357332198269755e-05</v>
+      </c>
+      <c r="C59">
+        <v>0.99991085444515515</v>
+      </c>
+      <c r="D59">
+        <v>7.8821555418810401e-07</v>
+      </c>
+      <c r="E59">
+        <v>7.0924732698649131e-12</v>
+      </c>
+      <c r="F59">
+        <v>2</v>
+      </c>
+      <c r="G59">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="9" t="s">
+        <v>586</v>
+      </c>
+      <c r="B60">
+        <v>0.00072069961929081567</v>
+      </c>
+      <c r="C60">
+        <v>0.99891831150455612</v>
+      </c>
+      <c r="D60">
+        <v>0.00036098828888398587</v>
+      </c>
+      <c r="E60">
+        <v>5.8726903935871215e-10</v>
+      </c>
+      <c r="F60">
+        <v>2</v>
+      </c>
+      <c r="G60">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="9" t="s">
+        <v>587</v>
+      </c>
+      <c r="B61">
+        <v>0.054648079533174389</v>
+      </c>
+      <c r="C61">
+        <v>0.19144528628293528</v>
+      </c>
+      <c r="D61">
+        <v>0.73295285782456898</v>
+      </c>
+      <c r="E61">
+        <v>0.020953776359321372</v>
+      </c>
+      <c r="F61">
+        <v>3</v>
+      </c>
+      <c r="G61">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="9" t="s">
+        <v>588</v>
+      </c>
+      <c r="B62">
+        <v>7.5901990241025738e-05</v>
+      </c>
+      <c r="C62">
+        <v>0.99977242850106796</v>
+      </c>
+      <c r="D62">
+        <v>0.00015166884906844997</v>
+      </c>
+      <c r="E62">
+        <v>6.5962253201217551e-10</v>
+      </c>
+      <c r="F62">
+        <v>2</v>
+      </c>
+      <c r="G62">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="9" t="s">
+        <v>589</v>
+      </c>
+      <c r="B63">
+        <v>0.00036309448637773469</v>
+      </c>
+      <c r="C63">
+        <v>0.99916862050569466</v>
+      </c>
+      <c r="D63">
+        <v>0.00046660566230394322</v>
+      </c>
+      <c r="E63">
+        <v>1.6793456237921221e-06</v>
+      </c>
+      <c r="F63">
+        <v>2</v>
+      </c>
+      <c r="G63">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="9" t="s">
+        <v>590</v>
+      </c>
+      <c r="B64">
+        <v>4.2356871533068931e-07</v>
+      </c>
+      <c r="C64">
+        <v>0.99996253855113126</v>
+      </c>
+      <c r="D64">
+        <v>3.7037853360592339e-05</v>
+      </c>
+      <c r="E64">
+        <v>2.6792728832170295e-11</v>
+      </c>
+      <c r="F64">
+        <v>2</v>
+      </c>
+      <c r="G64">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="9" t="s">
+        <v>591</v>
+      </c>
+      <c r="B65">
+        <v>1.5214951278160749e-06</v>
+      </c>
+      <c r="C65">
+        <v>0.9999983830730198</v>
+      </c>
+      <c r="D65">
+        <v>9.5195384691868823e-08</v>
+      </c>
+      <c r="E65">
+        <v>2.3646760081631577e-10</v>
+      </c>
+      <c r="F65">
+        <v>2</v>
+      </c>
+      <c r="G65">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="9" t="s">
+        <v>592</v>
+      </c>
+      <c r="B66">
+        <v>0.00026089547960253664</v>
+      </c>
+      <c r="C66">
+        <v>0.99874750560627212</v>
+      </c>
+      <c r="D66">
+        <v>0.00099159676788839802</v>
+      </c>
+      <c r="E66">
+        <v>2.1462370203428393e-09</v>
+      </c>
+      <c r="F66">
+        <v>2</v>
+      </c>
+      <c r="G66">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="9" t="s">
+        <v>593</v>
+      </c>
+      <c r="B67">
+        <v>1.4011734197832935e-05</v>
+      </c>
+      <c r="C67">
+        <v>0.98899919931350067</v>
+      </c>
+      <c r="D67">
+        <v>0.010986767799852065</v>
+      </c>
+      <c r="E67">
+        <v>2.1152449417387549e-08</v>
+      </c>
+      <c r="F67">
+        <v>2</v>
+      </c>
+      <c r="G67">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="9" t="s">
+        <v>594</v>
+      </c>
+      <c r="B68">
+        <v>1.2117494027437147e-06</v>
+      </c>
+      <c r="C68">
+        <v>0.99982727459326315</v>
+      </c>
+      <c r="D68">
+        <v>0.00017151357382476422</v>
+      </c>
+      <c r="E68">
+        <v>8.3509429157952456e-11</v>
+      </c>
+      <c r="F68">
+        <v>2</v>
+      </c>
+      <c r="G68">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="9" t="s">
+        <v>595</v>
+      </c>
+      <c r="B69">
+        <v>7.5980214581579924e-06</v>
+      </c>
+      <c r="C69">
+        <v>0.99999235316167301</v>
+      </c>
+      <c r="D69">
+        <v>4.8816825578805552e-08</v>
+      </c>
+      <c r="E69">
+        <v>4.3331489411013338e-14</v>
+      </c>
+      <c r="F69">
+        <v>2</v>
+      </c>
+      <c r="G69">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="9" t="s">
+        <v>596</v>
+      </c>
+      <c r="B70">
+        <v>8.5784378588575749e-06</v>
+      </c>
+      <c r="C70">
+        <v>0.99898964032652793</v>
+      </c>
+      <c r="D70">
+        <v>0.0010017662004871313</v>
+      </c>
+      <c r="E70">
+        <v>1.5035125969837387e-08</v>
+      </c>
+      <c r="F70">
+        <v>2</v>
+      </c>
+      <c r="G70">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="9" t="s">
+        <v>597</v>
+      </c>
+      <c r="B71">
+        <v>5.3896384388683915e-05</v>
+      </c>
+      <c r="C71">
+        <v>0.98196373740191045</v>
+      </c>
+      <c r="D71">
+        <v>0.017980210305117213</v>
+      </c>
+      <c r="E71">
+        <v>2.1559085836613632e-06</v>
+      </c>
+      <c r="F71">
+        <v>2</v>
+      </c>
+      <c r="G71">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="9" t="s">
+        <v>598</v>
+      </c>
+      <c r="B72">
+        <v>3.0272166984524225e-06</v>
+      </c>
+      <c r="C72">
+        <v>0.99997474726006796</v>
+      </c>
+      <c r="D72">
+        <v>9.2738893251312873e-07</v>
+      </c>
+      <c r="E72">
+        <v>2.1298134301112567e-05</v>
+      </c>
+      <c r="F72">
+        <v>2</v>
+      </c>
+      <c r="G72">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="9" t="s">
+        <v>599</v>
+      </c>
+      <c r="B73">
+        <v>5.6136471628439156e-08</v>
+      </c>
+      <c r="C73">
+        <v>0.99999983976256079</v>
+      </c>
+      <c r="D73">
+        <v>9.5735513838339198e-08</v>
+      </c>
+      <c r="E73">
+        <v>8.3654536907624818e-09</v>
+      </c>
+      <c r="F73">
+        <v>2</v>
+      </c>
+      <c r="G73">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="9" t="s">
+        <v>600</v>
+      </c>
+      <c r="B74">
+        <v>0.00012561302820922224</v>
+      </c>
+      <c r="C74">
+        <v>0.99861200030887765</v>
+      </c>
+      <c r="D74">
+        <v>0.0012622651126682296</v>
+      </c>
+      <c r="E74">
+        <v>1.2155024489475464e-07</v>
+      </c>
+      <c r="F74">
+        <v>2</v>
+      </c>
+      <c r="G74">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="9" t="s">
+        <v>601</v>
+      </c>
+      <c r="B75">
+        <v>1.0568351312822772e-05</v>
+      </c>
+      <c r="C75">
+        <v>0.99998109485303099</v>
+      </c>
+      <c r="D75">
+        <v>8.2678903733836312e-06</v>
+      </c>
+      <c r="E75">
+        <v>6.8905282742290002e-08</v>
+      </c>
+      <c r="F75">
+        <v>2</v>
+      </c>
+      <c r="G75">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="9" t="s">
+        <v>602</v>
+      </c>
+      <c r="B76">
+        <v>9.7952303105278574e-05</v>
+      </c>
+      <c r="C76">
+        <v>2.0947895283819369e-06</v>
+      </c>
+      <c r="D76">
+        <v>0.96419577947325863</v>
+      </c>
+      <c r="E76">
+        <v>0.035704173434107804</v>
+      </c>
+      <c r="F76">
+        <v>3</v>
+      </c>
+      <c r="G76">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="9" t="s">
+        <v>603</v>
+      </c>
+      <c r="B77">
+        <v>0.00016647935349932381</v>
+      </c>
+      <c r="C77">
+        <v>8.2329466225242967e-08</v>
+      </c>
+      <c r="D77">
+        <v>0.99982497898084999</v>
+      </c>
+      <c r="E77">
+        <v>8.4593361845207783e-06</v>
+      </c>
+      <c r="F77">
+        <v>3</v>
+      </c>
+      <c r="G77">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="9" t="s">
+        <v>604</v>
+      </c>
+      <c r="B78">
+        <v>3.3378239793134437e-05</v>
+      </c>
+      <c r="C78">
+        <v>1.9584699331967942e-06</v>
+      </c>
+      <c r="D78">
+        <v>0.99993991457395837</v>
+      </c>
+      <c r="E78">
+        <v>2.4748716315257507e-05</v>
+      </c>
+      <c r="F78">
+        <v>3</v>
+      </c>
+      <c r="G78">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="9" t="s">
+        <v>605</v>
+      </c>
+      <c r="B79">
+        <v>4.7060583306292428e-05</v>
+      </c>
+      <c r="C79">
+        <v>0.00010355989915416073</v>
+      </c>
+      <c r="D79">
+        <v>0.9998493020898539</v>
+      </c>
+      <c r="E79">
+        <v>7.7427685557472159e-08</v>
+      </c>
+      <c r="F79">
+        <v>3</v>
+      </c>
+      <c r="G79">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="9" t="s">
+        <v>606</v>
+      </c>
+      <c r="B80">
+        <v>0.0011984743757387578</v>
+      </c>
+      <c r="C80">
+        <v>2.855344113202123e-09</v>
+      </c>
+      <c r="D80">
+        <v>0.99873701277559235</v>
+      </c>
+      <c r="E80">
+        <v>6.4509993324761585e-05</v>
+      </c>
+      <c r="F80">
+        <v>3</v>
+      </c>
+      <c r="G80">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="9" t="s">
+        <v>607</v>
+      </c>
+      <c r="B81">
+        <v>0.029521848435872397</v>
+      </c>
+      <c r="C81">
+        <v>1.7580141345310617e-06</v>
+      </c>
+      <c r="D81">
+        <v>0.97044583249327332</v>
+      </c>
+      <c r="E81">
+        <v>3.0561056719880922e-05</v>
+      </c>
+      <c r="F81">
+        <v>3</v>
+      </c>
+      <c r="G81">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="9" t="s">
+        <v>608</v>
+      </c>
+      <c r="B82">
+        <v>0.010168458597817785</v>
+      </c>
+      <c r="C82">
+        <v>0.00015581085393156626</v>
+      </c>
+      <c r="D82">
+        <v>0.92105272012641282</v>
+      </c>
+      <c r="E82">
+        <v>0.068623010421837757</v>
+      </c>
+      <c r="F82">
+        <v>3</v>
+      </c>
+      <c r="G82">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="9" t="s">
+        <v>609</v>
+      </c>
+      <c r="B83">
+        <v>0.0041299562281458691</v>
+      </c>
+      <c r="C83">
+        <v>1.4634952548171405e-05</v>
+      </c>
+      <c r="D83">
+        <v>0.99583825126865044</v>
+      </c>
+      <c r="E83">
+        <v>1.7157550655581193e-05</v>
+      </c>
+      <c r="F83">
+        <v>3</v>
+      </c>
+      <c r="G83">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="9" t="s">
+        <v>610</v>
+      </c>
+      <c r="B84">
+        <v>0.041203508152367868</v>
+      </c>
+      <c r="C84">
+        <v>5.4539804903206667e-07</v>
+      </c>
+      <c r="D84">
+        <v>0.95877211790111472</v>
+      </c>
+      <c r="E84">
+        <v>2.3828548468451817e-05</v>
+      </c>
+      <c r="F84">
+        <v>3</v>
+      </c>
+      <c r="G84">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="9" t="s">
+        <v>611</v>
+      </c>
+      <c r="B85">
+        <v>0.00065391087828871905</v>
+      </c>
+      <c r="C85">
+        <v>4.5865144767864782e-06</v>
+      </c>
+      <c r="D85">
+        <v>0.99934143140309128</v>
+      </c>
+      <c r="E85">
+        <v>7.1204143309694697e-08</v>
+      </c>
+      <c r="F85">
+        <v>3</v>
+      </c>
+      <c r="G85">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="9" t="s">
+        <v>612</v>
+      </c>
+      <c r="B86">
+        <v>0.00031845710988039755</v>
+      </c>
+      <c r="C86">
+        <v>7.5270067506809099e-07</v>
+      </c>
+      <c r="D86">
+        <v>0.99968078190001186</v>
+      </c>
+      <c r="E86">
+        <v>8.2894326141248629e-09</v>
+      </c>
+      <c r="F86">
+        <v>3</v>
+      </c>
+      <c r="G86">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="9" t="s">
+        <v>613</v>
+      </c>
+      <c r="B87">
+        <v>0.003131787769930219</v>
+      </c>
+      <c r="C87">
+        <v>9.9296740569537814e-07</v>
+      </c>
+      <c r="D87">
+        <v>0.99686673168180062</v>
+      </c>
+      <c r="E87">
+        <v>4.8758086345795698e-07</v>
+      </c>
+      <c r="F87">
+        <v>3</v>
+      </c>
+      <c r="G87">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="9" t="s">
+        <v>614</v>
+      </c>
+      <c r="B88">
+        <v>0.00072606427936492291</v>
+      </c>
+      <c r="C88">
+        <v>0.00010757042959208619</v>
+      </c>
+      <c r="D88">
+        <v>0.99916470690302328</v>
+      </c>
+      <c r="E88">
+        <v>1.6583880198297367e-06</v>
+      </c>
+      <c r="F88">
+        <v>3</v>
+      </c>
+      <c r="G88">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="9" t="s">
+        <v>615</v>
+      </c>
+      <c r="B89">
+        <v>0.00048389962700398268</v>
+      </c>
+      <c r="C89">
+        <v>1.7598684699464962e-06</v>
+      </c>
+      <c r="D89">
+        <v>0.99951168803867951</v>
+      </c>
+      <c r="E89">
+        <v>2.6524658464295876e-06</v>
+      </c>
+      <c r="F89">
+        <v>3</v>
+      </c>
+      <c r="G89">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="9" t="s">
+        <v>616</v>
+      </c>
+      <c r="B90">
+        <v>0.038229802067421562</v>
+      </c>
+      <c r="C90">
+        <v>1.1191430611659147e-07</v>
+      </c>
+      <c r="D90">
+        <v>0.9617700843796374</v>
+      </c>
+      <c r="E90">
+        <v>1.6386349383263165e-09</v>
+      </c>
+      <c r="F90">
+        <v>3</v>
+      </c>
+      <c r="G90">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="9" t="s">
+        <v>617</v>
+      </c>
+      <c r="B91">
+        <v>0.012284259694106956</v>
+      </c>
+      <c r="C91">
+        <v>9.7078926807774626e-08</v>
+      </c>
+      <c r="D91">
+        <v>0.98771162294816839</v>
+      </c>
+      <c r="E91">
+        <v>4.0202787979213316e-06</v>
+      </c>
+      <c r="F91">
+        <v>3</v>
+      </c>
+      <c r="G91">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="9" t="s">
+        <v>618</v>
+      </c>
+      <c r="B92">
+        <v>0.010660797478634798</v>
+      </c>
+      <c r="C92">
+        <v>1.2348590364792138e-06</v>
+      </c>
+      <c r="D92">
+        <v>0.98930511006432531</v>
+      </c>
+      <c r="E92">
+        <v>3.2857598003363801e-05</v>
+      </c>
+      <c r="F92">
+        <v>3</v>
+      </c>
+      <c r="G92">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="9" t="s">
+        <v>619</v>
+      </c>
+      <c r="B93">
+        <v>0.00046528812144920021</v>
+      </c>
+      <c r="C93">
+        <v>6.4348317908302475e-09</v>
+      </c>
+      <c r="D93">
+        <v>0.99953342626173736</v>
+      </c>
+      <c r="E93">
+        <v>1.2791819815449869e-06</v>
+      </c>
+      <c r="F93">
+        <v>3</v>
+      </c>
+      <c r="G93">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="9" t="s">
+        <v>620</v>
+      </c>
+      <c r="B94">
+        <v>0.00033808488486204301</v>
+      </c>
+      <c r="C94">
+        <v>6.0136022036260971e-06</v>
+      </c>
+      <c r="D94">
+        <v>0.99965266132233099</v>
+      </c>
+      <c r="E94">
+        <v>3.2401906032919297e-06</v>
+      </c>
+      <c r="F94">
+        <v>3</v>
+      </c>
+      <c r="G94">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="9" t="s">
+        <v>621</v>
+      </c>
+      <c r="B95">
+        <v>9.1798019185093148e-05</v>
+      </c>
+      <c r="C95">
+        <v>2.5795150601840816e-07</v>
+      </c>
+      <c r="D95">
+        <v>0.99990671989072399</v>
+      </c>
+      <c r="E95">
+        <v>1.2241385847379515e-06</v>
+      </c>
+      <c r="F95">
+        <v>3</v>
+      </c>
+      <c r="G95">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="9" t="s">
+        <v>622</v>
+      </c>
+      <c r="B96">
+        <v>2.2113922184888013e-05</v>
+      </c>
+      <c r="C96">
+        <v>2.6949432394443358e-06</v>
+      </c>
+      <c r="D96">
+        <v>0.99993546755405871</v>
+      </c>
+      <c r="E96">
+        <v>3.9723580517008818e-05</v>
+      </c>
+      <c r="F96">
+        <v>3</v>
+      </c>
+      <c r="G96">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="9" t="s">
+        <v>623</v>
+      </c>
+      <c r="B97">
+        <v>8.7384179669273304e-05</v>
+      </c>
+      <c r="C97">
+        <v>3.0271847625516708e-08</v>
+      </c>
+      <c r="D97">
+        <v>0.98596416287044553</v>
+      </c>
+      <c r="E97">
+        <v>0.013948422678037453</v>
+      </c>
+      <c r="F97">
+        <v>3</v>
+      </c>
+      <c r="G97">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="9" t="s">
+        <v>624</v>
+      </c>
+      <c r="B98">
+        <v>0.00048580690723864709</v>
+      </c>
+      <c r="C98">
+        <v>5.6301978701989387e-05</v>
+      </c>
+      <c r="D98">
+        <v>0.99945421570551529</v>
+      </c>
+      <c r="E98">
+        <v>3.6754085441078875e-06</v>
+      </c>
+      <c r="F98">
+        <v>3</v>
+      </c>
+      <c r="G98">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="9" t="s">
+        <v>625</v>
+      </c>
+      <c r="B99">
+        <v>0.0030538270066871468</v>
+      </c>
+      <c r="C99">
+        <v>3.3499787898494033e-09</v>
+      </c>
+      <c r="D99">
+        <v>0.996683554385417</v>
+      </c>
+      <c r="E99">
+        <v>0.00026261525791701224</v>
+      </c>
+      <c r="F99">
+        <v>3</v>
+      </c>
+      <c r="G99">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="9" t="s">
+        <v>626</v>
+      </c>
+      <c r="B100">
+        <v>0.021300651799213605</v>
+      </c>
+      <c r="C100">
+        <v>7.1978714721829525e-05</v>
+      </c>
+      <c r="D100">
+        <v>0.97855746540725153</v>
+      </c>
+      <c r="E100">
+        <v>6.9904078813048779e-05</v>
+      </c>
+      <c r="F100">
+        <v>3</v>
+      </c>
+      <c r="G100">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="9" t="s">
+        <v>627</v>
+      </c>
+      <c r="B101">
+        <v>0.0010445324240595107</v>
+      </c>
+      <c r="C101">
+        <v>1.1619334667512133e-08</v>
+      </c>
+      <c r="D101">
+        <v>0.99893440914747511</v>
+      </c>
+      <c r="E101">
+        <v>2.1046809130690903e-05</v>
+      </c>
+      <c r="F101">
+        <v>3</v>
+      </c>
+      <c r="G101">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="9" t="s">
+        <v>628</v>
+      </c>
+      <c r="B102">
+        <v>0.011548534246288213</v>
+      </c>
+      <c r="C102">
+        <v>1.9101299925317174e-06</v>
+      </c>
+      <c r="D102">
+        <v>0.00099349247709234838</v>
+      </c>
+      <c r="E102">
+        <v>0.98745606314662682</v>
+      </c>
+      <c r="F102">
+        <v>4</v>
+      </c>
+      <c r="G102">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="9" t="s">
+        <v>629</v>
+      </c>
+      <c r="B103">
+        <v>0.0038042959075357402</v>
+      </c>
+      <c r="C103">
+        <v>4.1362146453395804e-09</v>
+      </c>
+      <c r="D103">
+        <v>0.0068646897413473977</v>
+      </c>
+      <c r="E103">
+        <v>0.98933101021490233</v>
+      </c>
+      <c r="F103">
+        <v>4</v>
+      </c>
+      <c r="G103">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="9" t="s">
+        <v>630</v>
+      </c>
+      <c r="B104">
+        <v>0.057961738136083948</v>
+      </c>
+      <c r="C104">
+        <v>1.5571519400962399e-05</v>
+      </c>
+      <c r="D104">
+        <v>1.5664583368854377e-05</v>
+      </c>
+      <c r="E104">
+        <v>0.94200702576114625</v>
+      </c>
+      <c r="F104">
+        <v>4</v>
+      </c>
+      <c r="G104">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="9" t="s">
+        <v>631</v>
+      </c>
+      <c r="B105">
+        <v>0.00083486320446789837</v>
+      </c>
+      <c r="C105">
+        <v>3.1061847301399328e-09</v>
+      </c>
+      <c r="D105">
+        <v>2.7435005959676676e-06</v>
+      </c>
+      <c r="E105">
+        <v>0.99916239018875141</v>
+      </c>
+      <c r="F105">
+        <v>4</v>
+      </c>
+      <c r="G105">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="9" t="s">
+        <v>632</v>
+      </c>
+      <c r="B106">
+        <v>0.16532946957793693</v>
+      </c>
+      <c r="C106">
+        <v>5.2896495333782336e-12</v>
+      </c>
+      <c r="D106">
+        <v>5.4689883641406514e-11</v>
+      </c>
+      <c r="E106">
+        <v>0.83467053036208338</v>
+      </c>
+      <c r="F106">
+        <v>4</v>
+      </c>
+      <c r="G106">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="9" t="s">
+        <v>633</v>
+      </c>
+      <c r="B107">
+        <v>0.0009163434605641901</v>
+      </c>
+      <c r="C107">
+        <v>1.0025845555317812e-10</v>
+      </c>
+      <c r="D107">
+        <v>8.2104197786033887e-06</v>
+      </c>
+      <c r="E107">
+        <v>0.99907544601939868</v>
+      </c>
+      <c r="F107">
+        <v>4</v>
+      </c>
+      <c r="G107">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="9" t="s">
+        <v>634</v>
+      </c>
+      <c r="B108">
+        <v>0.034377570111573746</v>
+      </c>
+      <c r="C108">
+        <v>3.7786918174285816e-05</v>
+      </c>
+      <c r="D108">
+        <v>0.020994268546923815</v>
+      </c>
+      <c r="E108">
+        <v>0.94459037442332805</v>
+      </c>
+      <c r="F108">
+        <v>4</v>
+      </c>
+      <c r="G108">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="9" t="s">
+        <v>635</v>
+      </c>
+      <c r="B109">
+        <v>0.44710254549940548</v>
+      </c>
+      <c r="C109">
+        <v>0.00017019081243738448</v>
+      </c>
+      <c r="D109">
+        <v>0.00078865280771596435</v>
+      </c>
+      <c r="E109">
+        <v>0.55193861088044116</v>
+      </c>
+      <c r="F109">
+        <v>4</v>
+      </c>
+      <c r="G109">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="9" t="s">
+        <v>636</v>
+      </c>
+      <c r="B110">
+        <v>0.011818328812368207</v>
+      </c>
+      <c r="C110">
+        <v>1.0843289043645877e-06</v>
+      </c>
+      <c r="D110">
+        <v>1.2154121903313337e-06</v>
+      </c>
+      <c r="E110">
+        <v>0.98817937144653722</v>
+      </c>
+      <c r="F110">
+        <v>4</v>
+      </c>
+      <c r="G110">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="9" t="s">
+        <v>637</v>
+      </c>
+      <c r="B111">
+        <v>0.000111244186422992</v>
+      </c>
+      <c r="C111">
+        <v>5.7044590332103363e-09</v>
+      </c>
+      <c r="D111">
+        <v>0.00052371546694013587</v>
+      </c>
+      <c r="E111">
+        <v>0.99936503464217796</v>
+      </c>
+      <c r="F111">
+        <v>4</v>
+      </c>
+      <c r="G111">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="9" t="s">
+        <v>638</v>
+      </c>
+      <c r="B112">
+        <v>2.8577339012605842e-09</v>
+      </c>
+      <c r="C112">
+        <v>2.0499452666037716e-06</v>
+      </c>
+      <c r="D112">
+        <v>1.2832407050209713e-06</v>
+      </c>
+      <c r="E112">
+        <v>0.99999666395629438</v>
+      </c>
+      <c r="F112">
+        <v>4</v>
+      </c>
+      <c r="G112">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="9" t="s">
+        <v>639</v>
+      </c>
+      <c r="B113">
+        <v>6.8597784819985824e-09</v>
+      </c>
+      <c r="C113">
+        <v>3.5188582722521239e-08</v>
+      </c>
+      <c r="D113">
+        <v>5.1359496427918268e-08</v>
+      </c>
+      <c r="E113">
+        <v>0.99999990659214233</v>
+      </c>
+      <c r="F113">
+        <v>4</v>
+      </c>
+      <c r="G113">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="9" t="s">
+        <v>640</v>
+      </c>
+      <c r="B114">
+        <v>4.8690940661998338e-08</v>
+      </c>
+      <c r="C114">
+        <v>9.8811169096311115e-07</v>
+      </c>
+      <c r="D114">
+        <v>1.9395074818305253e-07</v>
+      </c>
+      <c r="E114">
+        <v>0.99999876924662012</v>
+      </c>
+      <c r="F114">
+        <v>4</v>
+      </c>
+      <c r="G114">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="9" t="s">
+        <v>641</v>
+      </c>
+      <c r="B115">
+        <v>6.0608264369253836e-08</v>
+      </c>
+      <c r="C115">
+        <v>1.9051702544623668e-06</v>
+      </c>
+      <c r="D115">
+        <v>1.3853850727366108e-07</v>
+      </c>
+      <c r="E115">
+        <v>0.99999789568297381</v>
+      </c>
+      <c r="F115">
+        <v>4</v>
+      </c>
+      <c r="G115">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="9" t="s">
+        <v>642</v>
+      </c>
+      <c r="B116">
+        <v>4.8340683540199156e-06</v>
+      </c>
+      <c r="C116">
+        <v>4.4821053610342648e-07</v>
+      </c>
+      <c r="D116">
+        <v>2.0065284377214835e-06</v>
+      </c>
+      <c r="E116">
+        <v>0.99999271119267219</v>
+      </c>
+      <c r="F116">
+        <v>4</v>
+      </c>
+      <c r="G116">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="9" t="s">
+        <v>643</v>
+      </c>
+      <c r="B117">
+        <v>7.3135456666903105e-08</v>
+      </c>
+      <c r="C117">
+        <v>2.4154609158358082e-07</v>
+      </c>
+      <c r="D117">
+        <v>6.8320235132098887e-05</v>
+      </c>
+      <c r="E117">
+        <v>0.9999313650833197</v>
+      </c>
+      <c r="F117">
+        <v>4</v>
+      </c>
+      <c r="G117">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="9" t="s">
+        <v>644</v>
+      </c>
+      <c r="B118">
+        <v>6.3486070373968067e-06</v>
+      </c>
+      <c r="C118">
+        <v>2.8850375159522262e-07</v>
+      </c>
+      <c r="D118">
+        <v>1.2294471901433773e-08</v>
+      </c>
+      <c r="E118">
+        <v>0.99999335059473904</v>
+      </c>
+      <c r="F118">
+        <v>4</v>
+      </c>
+      <c r="G118">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="9" t="s">
+        <v>645</v>
+      </c>
+      <c r="B119">
+        <v>2.8798440710527124e-06</v>
+      </c>
+      <c r="C119">
+        <v>5.6620708703946025e-07</v>
+      </c>
+      <c r="D119">
+        <v>1.7266978553406193e-07</v>
+      </c>
+      <c r="E119">
+        <v>0.99999638127905643</v>
+      </c>
+      <c r="F119">
+        <v>4</v>
+      </c>
+      <c r="G119">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="9" t="s">
+        <v>646</v>
+      </c>
+      <c r="B120">
+        <v>1.4244838152530495e-05</v>
+      </c>
+      <c r="C120">
+        <v>1.0769158759411686e-07</v>
+      </c>
+      <c r="D120">
+        <v>0.00014860866722869311</v>
+      </c>
+      <c r="E120">
+        <v>0.99983703880303121</v>
+      </c>
+      <c r="F120">
+        <v>4</v>
+      </c>
+      <c r="G120">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="9" t="s">
+        <v>647</v>
+      </c>
+      <c r="B121">
+        <v>2.0226413210636571e-05</v>
+      </c>
+      <c r="C121">
+        <v>4.664480287771425e-07</v>
+      </c>
+      <c r="D121">
+        <v>0.00015915848293366301</v>
+      </c>
+      <c r="E121">
+        <v>0.99982014865582691</v>
+      </c>
+      <c r="F121">
+        <v>4</v>
+      </c>
+      <c r="G121">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="9" t="s">
+        <v>648</v>
+      </c>
+      <c r="B122">
+        <v>4.2881380749288313e-06</v>
+      </c>
+      <c r="C122">
+        <v>6.6651662335752588e-07</v>
+      </c>
+      <c r="D122">
+        <v>0.00041633993451969438</v>
+      </c>
+      <c r="E122">
+        <v>0.99957870541078209</v>
+      </c>
+      <c r="F122">
+        <v>4</v>
+      </c>
+      <c r="G122">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="9" t="s">
+        <v>649</v>
+      </c>
+      <c r="B123">
+        <v>1.4066335886505388e-06</v>
+      </c>
+      <c r="C123">
+        <v>9.2948851543626443e-08</v>
+      </c>
+      <c r="D123">
+        <v>4.5812963494289983e-06</v>
+      </c>
+      <c r="E123">
+        <v>0.99999391912121038</v>
+      </c>
+      <c r="F123">
+        <v>4</v>
+      </c>
+      <c r="G123">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="9" t="s">
+        <v>650</v>
+      </c>
+      <c r="B124">
+        <v>1.9308726241765842e-06</v>
+      </c>
+      <c r="C124">
+        <v>3.1228107808499603e-08</v>
+      </c>
+      <c r="D124">
+        <v>7.5251791883421902e-05</v>
+      </c>
+      <c r="E124">
+        <v>0.99992278610738472</v>
+      </c>
+      <c r="F124">
+        <v>4</v>
+      </c>
+      <c r="G124">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="9" t="s">
+        <v>651</v>
+      </c>
+      <c r="B125">
+        <v>1.5789899258796869e-07</v>
+      </c>
+      <c r="C125">
+        <v>3.6948646137844185e-08</v>
+      </c>
+      <c r="D125">
+        <v>6.267104225629368e-07</v>
+      </c>
+      <c r="E125">
+        <v>0.99999917844193875</v>
+      </c>
+      <c r="F125">
+        <v>4</v>
+      </c>
+      <c r="G125">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="9" t="s">
+        <v>652</v>
+      </c>
+      <c r="B126">
+        <v>2.7234061346559538e-06</v>
+      </c>
+      <c r="C126">
+        <v>4.5533926747312104e-07</v>
+      </c>
+      <c r="D126">
+        <v>0.00034713561194511794</v>
+      </c>
+      <c r="E126">
+        <v>0.99964968564265266</v>
+      </c>
+      <c r="F126">
+        <v>4</v>
+      </c>
+      <c r="G126">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="9" t="s">
+        <v>653</v>
+      </c>
+      <c r="B127">
+        <v>9.668635496373177e-08</v>
+      </c>
+      <c r="C127">
+        <v>5.6839795264926358e-06</v>
+      </c>
+      <c r="D127">
+        <v>3.6842387051953303e-07</v>
+      </c>
+      <c r="E127">
+        <v>0.99999385091024795</v>
+      </c>
+      <c r="F127">
+        <v>4</v>
+      </c>
+      <c r="G127">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="9" t="s">
+        <v>654</v>
+      </c>
+      <c r="B128">
+        <v>0.00011488457022184004</v>
+      </c>
+      <c r="C128">
+        <v>0.0022511722025128768</v>
+      </c>
+      <c r="D128">
+        <v>0.025186535558920635</v>
+      </c>
+      <c r="E128">
+        <v>0.97244740766834459</v>
+      </c>
+      <c r="F128">
+        <v>4</v>
+      </c>
+      <c r="G128">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="9" t="s">
+        <v>655</v>
+      </c>
+      <c r="B129">
+        <v>3.6885231951517106e-05</v>
+      </c>
+      <c r="C129">
+        <v>0.0033358982202639762</v>
+      </c>
+      <c r="D129">
+        <v>8.9063612370917016e-08</v>
+      </c>
+      <c r="E129">
+        <v>0.99662712748417215</v>
+      </c>
+      <c r="F129">
+        <v>4</v>
+      </c>
+      <c r="G129">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="9" t="s">
+        <v>656</v>
+      </c>
+      <c r="B130">
+        <v>7.5375924302582863e-07</v>
+      </c>
+      <c r="C130">
+        <v>2.2279863788588249e-05</v>
+      </c>
+      <c r="D130">
+        <v>0.00054579206046306513</v>
+      </c>
+      <c r="E130">
+        <v>0.99943117431650541</v>
+      </c>
+      <c r="F130">
+        <v>4</v>
+      </c>
+      <c r="G130">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="9" t="s">
+        <v>657</v>
+      </c>
+      <c r="B131">
+        <v>0.0064121086934357556</v>
+      </c>
+      <c r="C131">
+        <v>8.0519636861133199e-08</v>
+      </c>
+      <c r="D131">
+        <v>8.3365629498357269e-06</v>
+      </c>
+      <c r="E131">
+        <v>0.99357947422397763</v>
+      </c>
+      <c r="F131">
+        <v>4</v>
+      </c>
+      <c r="G131">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+</worksheet>
 </file>